--- a/biology/Zoologie/Indotyphlops_braminus/Indotyphlops_braminus.xlsx
+++ b/biology/Zoologie/Indotyphlops_braminus/Indotyphlops_braminus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indotyphlops braminus ou Typhlops commun est une espèce de serpents de la famille des Typhlopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indotyphlops braminus ou Typhlops commun est une espèce de serpents de la famille des Typhlopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est très largement répandue, elle se rencontre en Afrique, en Asie, en Océanie, en Amérique du Nord, en Amérique centrale et aux Antilles jusqu'à 2 000 m d'altitude[1]. Selon Hedges, Marion, Lipp, Marin et Vidal en 2014, cette espèce est originaire d'Asie du Sud et s'est répandue de par le monde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est très largement répandue, elle se rencontre en Afrique, en Asie, en Océanie, en Amérique du Nord, en Amérique centrale et aux Antilles jusqu'à 2 000 m d'altitude. Selon Hedges, Marion, Lipp, Marin et Vidal en 2014, cette espèce est originaire d'Asie du Sud et s'est répandue de par le monde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indotyphlops braminus mesure environ 130 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indotyphlops braminus mesure environ 130 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est, avec Acrochordus arafurae, une des seules espèces de serpents parthénogenétiques. Les femelles pondent leurs œufs, de la taille d'une cacahuète, sans s'accoupler[4]. Tous les spécimens collectés sont des femelles[1]. C'est une espèce triploïde[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est, avec Acrochordus arafurae, une des seules espèces de serpents parthénogenétiques. Les femelles pondent leurs œufs, de la taille d'une cacahuète, sans s'accoupler. Tous les spécimens collectés sont des femelles. C'est une espèce triploïde.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indotyphlops braminus se nourrit de termites et de fourmis[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indotyphlops braminus se nourrit de termites et de fourmis.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Daudin, 1803 : Histoire Naturelle, Générale et Particulière des Reptiles; ouvrage faisant suite à l'Histoire naturelle générale et particulière, composée par Leclerc de Buffon; et rédigee par C.S. Sonnini, membre de plusieurs sociétés savantes, vol. 7, F. Dufart, Paris, p. 1-436 (texte intégral).</t>
         </is>
